--- a/uniao.xlsx
+++ b/uniao.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia\Dropbox\UNB\Imoveis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD6B5CF-52CE-4829-9B52-16FA9F3EC2EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C902F8E-BD3A-43F9-9001-C3DA1609B627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EB1F755-DCA1-45B4-80EF-57DE2E0D24CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6EB1F755-DCA1-45B4-80EF-57DE2E0D24CE}"/>
   </bookViews>
   <sheets>
     <sheet name="processo" sheetId="1" r:id="rId1"/>
     <sheet name="aprovados" sheetId="2" r:id="rId2"/>
+    <sheet name="edital" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="64">
   <si>
     <t>Bairro</t>
   </si>
@@ -55,9 +56,6 @@
     <t>banheiros</t>
   </si>
   <si>
-    <t>vagasc</t>
-  </si>
-  <si>
     <t>Asa Norte</t>
   </si>
   <si>
@@ -65,6 +63,162 @@
   </si>
   <si>
     <t>precouniao</t>
+  </si>
+  <si>
+    <t>Logradouro</t>
+  </si>
+  <si>
+    <t>SQN 106, Bloco D, Apartamento 303, Asa Norte - CEP: 70742-040</t>
+  </si>
+  <si>
+    <t>SQN 104. Bloco E, Apartamento 407, Asa Norte - CEP: 70733-050</t>
+  </si>
+  <si>
+    <t>SQN 106, Bloco I, Apartamento 104, Asa Norte - CEP: 70742-090</t>
+  </si>
+  <si>
+    <t>SQN 108, Bloco F, Apartamento 206, Asa Norte - CEP: 70744-060</t>
+  </si>
+  <si>
+    <t>SQN 106, Bloco G, Apartamento 403, Asa Norte - CEP: 70742-070</t>
+  </si>
+  <si>
+    <t>SQN 106, Bloco H, Apartamento 201, Asa Norte - CEP: 70742-080</t>
+  </si>
+  <si>
+    <t>SQN 108, Bloco A, Apartamento 401, Asa Norte - CEP: 70744-010</t>
+  </si>
+  <si>
+    <t>SQN 112, Bloco I, Apartamento 403, Asa Norte - CEP: 70762-090</t>
+  </si>
+  <si>
+    <t>SQN 304, Bloco B, Apartamento 608, Asa Norte - CEP: 70736-020</t>
+  </si>
+  <si>
+    <t>SQN 112, Bloco K, Apartamento 501, Asa Norte - CEP: 70762-110</t>
+  </si>
+  <si>
+    <t>SQS 210, Bloco H, Apartamento 106, Asa Sul - CEP: 70273-080</t>
+  </si>
+  <si>
+    <t>SQS 210, Bloco B, Apartamento 411, Asa Sul - CEP: 70273-020</t>
+  </si>
+  <si>
+    <t>SQN 106, Bloco A, Apartamento 607, Asa Norte - CEP: 70742-010</t>
+  </si>
+  <si>
+    <t>SQS 413 Bloco I 201, Asa Sul - CEP: 70296-090</t>
+  </si>
+  <si>
+    <t>SQN 105, Bloco E, Apartamento 104, Asa Norte - CEP: 70734-050</t>
+  </si>
+  <si>
+    <t>SQS 102 Bloco J, Apartamento 107, Asa Sul</t>
+  </si>
+  <si>
+    <t>SQS 102 Bloco J, Apartamento 606, Asa Sul</t>
+  </si>
+  <si>
+    <t>SQS 102 Bloco J, Apartamento 503, Asa Sul</t>
+  </si>
+  <si>
+    <t>SQN 106, Bloco F, Apartamento 103, Asa Norte - CEP: 70742-060</t>
+  </si>
+  <si>
+    <t>SQS 105, Bloco C, Apartamento 505, Asa Sul - CEP: 70344-030</t>
+  </si>
+  <si>
+    <t>SQN 313, Bloco B, Apartamento 103, Asa Norte - CEP: 70766-020</t>
+  </si>
+  <si>
+    <t>SQN 108, Bloco B, Apartamento 603, Asa Norte - CEP: 70744-020</t>
+  </si>
+  <si>
+    <t>SQS 302, Bloco E, Apartamento 101, Asa sul - CEP: 70338-050</t>
+  </si>
+  <si>
+    <t>SQN 106, Bloco J, Apartamento 202, Asa Norte - CEP: 70742-100</t>
+  </si>
+  <si>
+    <t>SQS 311, Bloco D, Apartamento 602, Asa Sul - CEP: 70364-040</t>
+  </si>
+  <si>
+    <t>SQN 304, Bloco G, Apartamento 505, Asa Norte - CEP: 70736-070</t>
+  </si>
+  <si>
+    <t>SQS 216 Bloco D 603, Asa Sul - CEP: 70295-040</t>
+  </si>
+  <si>
+    <t>SQN 307 Bloco D 108, Asa Norte - CEP: 70746-040</t>
+  </si>
+  <si>
+    <t>SQS 104, Bloco D, Apartamento 601, Asa Sul - CEP: 70343-040</t>
+  </si>
+  <si>
+    <t>SQN 106, Bloco C, Apartamento 304, Asa Norte - CEP: 70742-030</t>
+  </si>
+  <si>
+    <t>SQS 216, Bloco J, Apartamento 202, Asa Sul - CEP: 70295-100</t>
+  </si>
+  <si>
+    <t>SQS 316, Bloco I, Apartamento 205, Asa Sul - CEP: 70387-090</t>
+  </si>
+  <si>
+    <t>SQS 316, Bloco K, Apartamento 403, Asa Sul - CEP: 70387-110</t>
+  </si>
+  <si>
+    <t>SQN 313, Bloco E, Apartamento 610, Asa Norte - CEP: 70766-050</t>
+  </si>
+  <si>
+    <t>SQN 106, Bloco C, Apartamento 503, Asa Norte - CEP: 70742-030</t>
+  </si>
+  <si>
+    <t>SQN 304 Bloco G 101, Asa Norte - CEP: 70736-070</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>SQS 102, Bloco C, Apartamento 207, Asa Sul</t>
+  </si>
+  <si>
+    <t>SQS 102, Bloco F, Apartamento 206, Asa Sul</t>
+  </si>
+  <si>
+    <t>SQS 102, Bloco J, Apartamento 605, Asa Sul</t>
+  </si>
+  <si>
+    <t>SHI/SUL, QI 13, Conjunto 2, Lote 08, Lago Sul</t>
+  </si>
+  <si>
+    <t>Lago Sul</t>
+  </si>
+  <si>
+    <t>SQS 102, Bloco D, Apartamento 104, Asa Sul</t>
+  </si>
+  <si>
+    <t>SQS 102, Bloco F, Apartamento 106, Asa Sul</t>
+  </si>
+  <si>
+    <t>SQS 102, Bloco F, Apartamento 204, Asa Sul</t>
+  </si>
+  <si>
+    <t>SQS 102, Bloco J, Apartamento 203, Asa Sul</t>
+  </si>
+  <si>
+    <t>SQS 102, Bloco J, Apartamento 304, Asa Sul</t>
+  </si>
+  <si>
+    <t>SQS 102 Bloco F, Apartamento 407, Asa Sul</t>
+  </si>
+  <si>
+    <t>SQS 102, Bloco F, Apartamento 306, Asa Sul - CEP: 70330-060</t>
+  </si>
+  <si>
+    <t>SHI/SUL QL 12, Conjunto 15, Lote 04, Lago Sul</t>
+  </si>
+  <si>
+    <t>SHI/SUL QL 12, Conjunto 15, Lote 01, Lago Sul</t>
   </si>
 </sst>
 </file>
@@ -418,295 +572,295 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC15932-5C4C-46F8-BAA0-E0AA6D666380}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>29400</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>38500</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>45500</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>70</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>950</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>52500</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>68750</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>81250</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>125</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1134</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>75600</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>99000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>117000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>180</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1350</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>4</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>51240</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>67100</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>79300</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>122</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1161</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>46200</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>60500</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>71500</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>110</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1080</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>46200</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>60500</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>71500</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>110</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1080</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
         <v>50400</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>66000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>78000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>120</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1134</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>55020</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>72050</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>85150</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>131</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1053</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>2</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -714,63 +868,63 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>55440</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>72600</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>85800</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>132</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1296</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>57540</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>75350</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>89050</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>137</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>756</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>2</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -778,63 +932,63 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
         <v>50400</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>66000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>78000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>120</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>810</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
         <v>31920</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>41800</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>49400</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>76</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>810</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>2</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -847,17 +1001,832 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD2ED53-9AB8-43AB-A82F-D1A98E54FF8E}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>46548.6</v>
+      </c>
+      <c r="D2">
+        <v>60956.5</v>
+      </c>
+      <c r="E2">
+        <v>72039.5</v>
+      </c>
+      <c r="F2">
+        <v>110.83</v>
+      </c>
+      <c r="G2">
+        <v>810</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>37380</v>
+      </c>
+      <c r="D3">
+        <v>48950</v>
+      </c>
+      <c r="E3">
+        <v>57850</v>
+      </c>
+      <c r="F3">
+        <v>89</v>
+      </c>
+      <c r="G3">
+        <v>877.2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>46922.400000000001</v>
+      </c>
+      <c r="D4">
+        <v>61446</v>
+      </c>
+      <c r="E4">
+        <v>72618</v>
+      </c>
+      <c r="F4">
+        <v>111.72</v>
+      </c>
+      <c r="G4">
+        <v>1026</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>47056.800000000003</v>
+      </c>
+      <c r="D5">
+        <v>61622</v>
+      </c>
+      <c r="E5">
+        <v>72826</v>
+      </c>
+      <c r="F5">
+        <v>112.04</v>
+      </c>
+      <c r="G5">
+        <v>980.4</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>47056.800000000003</v>
+      </c>
+      <c r="D6">
+        <v>61622</v>
+      </c>
+      <c r="E6">
+        <v>72826</v>
+      </c>
+      <c r="F6">
+        <v>112.04</v>
+      </c>
+      <c r="G6">
+        <v>1006.2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>47056.800000000003</v>
+      </c>
+      <c r="D7">
+        <v>61622</v>
+      </c>
+      <c r="E7">
+        <v>72826</v>
+      </c>
+      <c r="F7">
+        <v>112.04</v>
+      </c>
+      <c r="G7">
+        <v>903</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>64709.4</v>
+      </c>
+      <c r="D8">
+        <v>84738.5</v>
+      </c>
+      <c r="E8">
+        <v>100145.5</v>
+      </c>
+      <c r="F8">
+        <v>154.07</v>
+      </c>
+      <c r="G8">
+        <v>1080</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>55041</v>
+      </c>
+      <c r="D9">
+        <v>72077.5</v>
+      </c>
+      <c r="E9">
+        <v>85182.5</v>
+      </c>
+      <c r="F9">
+        <v>131.05000000000001</v>
+      </c>
+      <c r="G9">
+        <v>1006.2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>45221.4</v>
+      </c>
+      <c r="D10">
+        <v>59218.5</v>
+      </c>
+      <c r="E10">
+        <v>69985.5</v>
+      </c>
+      <c r="F10">
+        <v>107.67</v>
+      </c>
+      <c r="G10">
+        <v>945</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>51441.599999999999</v>
+      </c>
+      <c r="D11">
+        <v>67364</v>
+      </c>
+      <c r="E11">
+        <v>79612</v>
+      </c>
+      <c r="F11">
+        <v>122.48</v>
+      </c>
+      <c r="G11">
+        <v>1026</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>68838</v>
+      </c>
+      <c r="D12">
+        <v>90145</v>
+      </c>
+      <c r="E12">
+        <v>106535</v>
+      </c>
+      <c r="F12">
+        <v>163.9</v>
+      </c>
+      <c r="G12">
+        <v>1135.2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>76066.2</v>
+      </c>
+      <c r="D13">
+        <v>99610.5</v>
+      </c>
+      <c r="E13">
+        <v>117721.5</v>
+      </c>
+      <c r="F13">
+        <v>181.11</v>
+      </c>
+      <c r="G13">
+        <v>1350</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>45494.400000000001</v>
+      </c>
+      <c r="D14">
+        <v>59576</v>
+      </c>
+      <c r="E14">
+        <v>70408</v>
+      </c>
+      <c r="F14">
+        <v>108.32</v>
+      </c>
+      <c r="G14">
+        <v>941.7</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>55410.6</v>
+      </c>
+      <c r="D15">
+        <v>72561.5</v>
+      </c>
+      <c r="E15">
+        <v>85754.5</v>
+      </c>
+      <c r="F15">
+        <v>131.93</v>
+      </c>
+      <c r="G15">
+        <v>1039.5</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>70371</v>
+      </c>
+      <c r="D16">
+        <v>92152.5</v>
+      </c>
+      <c r="E16">
+        <v>108907.5</v>
+      </c>
+      <c r="F16">
+        <v>167.55</v>
+      </c>
+      <c r="G16">
+        <v>1419</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>52050.6</v>
+      </c>
+      <c r="D17">
+        <v>68161.5</v>
+      </c>
+      <c r="E17">
+        <v>80554.5</v>
+      </c>
+      <c r="F17">
+        <v>123.93</v>
+      </c>
+      <c r="G17">
+        <v>1269</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>65352</v>
+      </c>
+      <c r="D18">
+        <v>85580</v>
+      </c>
+      <c r="E18">
+        <v>101140</v>
+      </c>
+      <c r="F18">
+        <v>155.6</v>
+      </c>
+      <c r="G18">
+        <v>1444.8</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>46548.6</v>
+      </c>
+      <c r="D19">
+        <v>60956.5</v>
+      </c>
+      <c r="E19">
+        <v>72039.5</v>
+      </c>
+      <c r="F19">
+        <v>110.83</v>
+      </c>
+      <c r="G19">
+        <v>1026</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>70438.2</v>
+      </c>
+      <c r="D20">
+        <v>92240.5</v>
+      </c>
+      <c r="E20">
+        <v>109011.5</v>
+      </c>
+      <c r="F20">
+        <v>167.71</v>
+      </c>
+      <c r="G20">
+        <v>1496.4</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>66179.399999999994</v>
+      </c>
+      <c r="D21">
+        <v>86663.5</v>
+      </c>
+      <c r="E21">
+        <v>102420.5</v>
+      </c>
+      <c r="F21">
+        <v>157.57</v>
+      </c>
+      <c r="G21">
+        <v>1419</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>66179.399999999994</v>
+      </c>
+      <c r="D22">
+        <v>86663.5</v>
+      </c>
+      <c r="E22">
+        <v>102420.5</v>
+      </c>
+      <c r="F22">
+        <v>157.57</v>
+      </c>
+      <c r="G22">
+        <v>1419</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>48085.8</v>
+      </c>
+      <c r="D23">
+        <v>62969.5</v>
+      </c>
+      <c r="E23">
+        <v>74418.5</v>
+      </c>
+      <c r="F23">
+        <v>114.49</v>
+      </c>
+      <c r="G23">
+        <v>1080</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>46548.6</v>
+      </c>
+      <c r="D24">
+        <v>60956.5</v>
+      </c>
+      <c r="E24">
+        <v>72039.5</v>
+      </c>
+      <c r="F24">
+        <v>110.83</v>
+      </c>
+      <c r="G24">
+        <v>1080</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>56473.2</v>
+      </c>
+      <c r="D25">
+        <v>73953</v>
+      </c>
+      <c r="E25">
+        <v>87399</v>
+      </c>
+      <c r="F25">
+        <v>134.46</v>
+      </c>
+      <c r="G25">
+        <v>1242</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7AC39D-0077-4424-BF2C-BB5CBF12ACC1}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -887,68 +1856,68 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>952898.12</v>
+      <c r="A2" t="s">
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2">
-        <v>46548.6</v>
+        <v>47056.800000000003</v>
       </c>
       <c r="D2">
-        <v>60956.5</v>
+        <v>61622</v>
       </c>
       <c r="E2">
-        <v>72039.5</v>
+        <v>72826</v>
       </c>
       <c r="F2">
-        <v>110.83</v>
+        <v>112.04</v>
       </c>
       <c r="G2">
-        <v>810</v>
+        <v>840</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>980000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>637163.62</v>
+      <c r="A3" t="s">
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>37380</v>
+        <v>47056.800000000003</v>
       </c>
       <c r="D3">
-        <v>48950</v>
+        <v>61622</v>
       </c>
       <c r="E3">
-        <v>57850</v>
+        <v>72826</v>
       </c>
       <c r="F3">
-        <v>89</v>
+        <v>112.04</v>
       </c>
       <c r="G3">
-        <v>877.2</v>
+        <v>560</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -957,30 +1926,30 @@
         <v>3</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>936800</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1033646.22</v>
+      <c r="A4" t="s">
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>46922.400000000001</v>
+        <v>47056.800000000003</v>
       </c>
       <c r="D4">
-        <v>61446</v>
+        <v>61622</v>
       </c>
       <c r="E4">
-        <v>72618</v>
+        <v>72826</v>
       </c>
       <c r="F4">
-        <v>111.72</v>
+        <v>112.04</v>
       </c>
       <c r="G4">
-        <v>1026</v>
+        <v>840</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -992,50 +1961,50 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>1010000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>951000</v>
+      <c r="A5" t="s">
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>47056.800000000003</v>
+        <v>147558.6</v>
       </c>
       <c r="D5">
-        <v>61622</v>
+        <v>193231.5</v>
       </c>
       <c r="E5">
-        <v>72826</v>
+        <v>228364.5</v>
       </c>
       <c r="F5">
-        <v>112.04</v>
+        <v>351.33</v>
       </c>
       <c r="G5">
-        <v>980.4</v>
+        <v>700</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2045280.31</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1010000</v>
+      <c r="A6" t="s">
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>47056.800000000003</v>
@@ -1050,7 +2019,7 @@
         <v>112.04</v>
       </c>
       <c r="G6">
-        <v>1006.2</v>
+        <v>840</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1062,15 +2031,15 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>980000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1006000</v>
+      <c r="A7" t="s">
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>47056.800000000003</v>
@@ -1085,7 +2054,7 @@
         <v>112.04</v>
       </c>
       <c r="G7">
-        <v>903</v>
+        <v>1106</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1097,30 +2066,30 @@
         <v>3</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>909000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1192427.32</v>
+      <c r="A8" t="s">
+        <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>64709.4</v>
+        <v>47056.800000000003</v>
       </c>
       <c r="D8">
-        <v>84738.5</v>
+        <v>61622</v>
       </c>
       <c r="E8">
-        <v>100145.5</v>
+        <v>72826</v>
       </c>
       <c r="F8">
-        <v>154.07</v>
+        <v>112.04</v>
       </c>
       <c r="G8">
-        <v>1080</v>
+        <v>1064</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1132,30 +2101,30 @@
         <v>3</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>909000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1069476.6599999999</v>
+      <c r="A9" t="s">
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>55041</v>
+        <v>47056.800000000003</v>
       </c>
       <c r="D9">
-        <v>72077.5</v>
+        <v>61622</v>
       </c>
       <c r="E9">
-        <v>85182.5</v>
+        <v>72826</v>
       </c>
       <c r="F9">
-        <v>131.05000000000001</v>
+        <v>112.04</v>
       </c>
       <c r="G9">
-        <v>1006.2</v>
+        <v>1064</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1167,30 +2136,30 @@
         <v>3</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>936000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1082349.3999999999</v>
+      <c r="A10" t="s">
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>45221.4</v>
+        <v>47056.800000000003</v>
       </c>
       <c r="D10">
-        <v>59218.5</v>
+        <v>61622</v>
       </c>
       <c r="E10">
-        <v>69985.5</v>
+        <v>72826</v>
       </c>
       <c r="F10">
-        <v>107.67</v>
+        <v>112.04</v>
       </c>
       <c r="G10">
-        <v>945</v>
+        <v>1064</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1202,30 +2171,30 @@
         <v>3</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>980000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1130405.53</v>
+      <c r="A11" t="s">
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>51441.599999999999</v>
+        <v>47056.800000000003</v>
       </c>
       <c r="D11">
-        <v>67364</v>
+        <v>61622</v>
       </c>
       <c r="E11">
-        <v>79612</v>
+        <v>72826</v>
       </c>
       <c r="F11">
-        <v>122.48</v>
+        <v>112.04</v>
       </c>
       <c r="G11">
-        <v>1026</v>
+        <v>1064</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1237,30 +2206,30 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>993000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1405201.24</v>
+      <c r="A12" t="s">
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>68838</v>
+        <v>47056.800000000003</v>
       </c>
       <c r="D12">
-        <v>90145</v>
+        <v>61622</v>
       </c>
       <c r="E12">
-        <v>106535</v>
+        <v>72826</v>
       </c>
       <c r="F12">
-        <v>163.9</v>
+        <v>112.04</v>
       </c>
       <c r="G12">
-        <v>1135.2</v>
+        <v>1064</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1272,462 +2241,106 @@
         <v>3</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>956000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1441694.78</v>
+      <c r="A13" t="s">
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
-        <v>76066.2</v>
+        <v>47056.800000000003</v>
       </c>
       <c r="D13">
-        <v>99610.5</v>
+        <v>61622</v>
       </c>
       <c r="E13">
-        <v>117721.5</v>
+        <v>72826</v>
       </c>
       <c r="F13">
-        <v>181.11</v>
+        <v>112.04</v>
       </c>
       <c r="G13">
-        <v>1350</v>
+        <v>1064</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>949000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>844810.49</v>
+      <c r="A14" t="s">
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C14">
-        <v>45494.400000000001</v>
+        <v>170625</v>
       </c>
       <c r="D14">
-        <v>59576</v>
+        <v>223437.5</v>
       </c>
       <c r="E14">
-        <v>70408</v>
+        <v>264062.5</v>
       </c>
       <c r="F14">
-        <v>108.32</v>
+        <v>406.25</v>
       </c>
       <c r="G14">
-        <v>941.7</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>6200478.2599999998</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1159060.8</v>
+      <c r="A15" t="s">
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C15">
-        <v>55410.6</v>
+        <v>277368</v>
       </c>
       <c r="D15">
-        <v>72561.5</v>
+        <v>363220</v>
       </c>
       <c r="E15">
-        <v>85754.5</v>
+        <v>429260</v>
       </c>
       <c r="F15">
-        <v>131.93</v>
+        <v>660.4</v>
       </c>
       <c r="G15">
-        <v>1039.5</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1330431.3799999999</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>70371</v>
-      </c>
-      <c r="D16">
-        <v>92152.5</v>
-      </c>
-      <c r="E16">
-        <v>108907.5</v>
-      </c>
-      <c r="F16">
-        <v>167.55</v>
-      </c>
-      <c r="G16">
-        <v>1419</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1167163.42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>52050.6</v>
-      </c>
-      <c r="D17">
-        <v>68161.5</v>
-      </c>
-      <c r="E17">
-        <v>80554.5</v>
-      </c>
-      <c r="F17">
-        <v>123.93</v>
-      </c>
-      <c r="G17">
-        <v>1269</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1198199.53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>65352</v>
-      </c>
-      <c r="D18">
-        <v>85580</v>
-      </c>
-      <c r="E18">
-        <v>101140</v>
-      </c>
-      <c r="F18">
-        <v>155.6</v>
-      </c>
-      <c r="G18">
-        <v>1444.8</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>822047.82</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>46548.6</v>
-      </c>
-      <c r="D19">
-        <v>60956.5</v>
-      </c>
-      <c r="E19">
-        <v>72039.5</v>
-      </c>
-      <c r="F19">
-        <v>110.83</v>
-      </c>
-      <c r="G19">
-        <v>1026</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1374657.83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>70438.2</v>
-      </c>
-      <c r="D20">
-        <v>92240.5</v>
-      </c>
-      <c r="E20">
-        <v>109011.5</v>
-      </c>
-      <c r="F20">
-        <v>167.71</v>
-      </c>
-      <c r="G20">
-        <v>1496.4</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1309866.94</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>66179.399999999994</v>
-      </c>
-      <c r="D21">
-        <v>86663.5</v>
-      </c>
-      <c r="E21">
-        <v>102420.5</v>
-      </c>
-      <c r="F21">
-        <v>157.57</v>
-      </c>
-      <c r="G21">
-        <v>1419</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1344578.03</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>66179.399999999994</v>
-      </c>
-      <c r="D22">
-        <v>86663.5</v>
-      </c>
-      <c r="E22">
-        <v>102420.5</v>
-      </c>
-      <c r="F22">
-        <v>157.57</v>
-      </c>
-      <c r="G22">
-        <v>1419</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1082637.3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>48085.8</v>
-      </c>
-      <c r="D23">
-        <v>62969.5</v>
-      </c>
-      <c r="E23">
-        <v>74418.5</v>
-      </c>
-      <c r="F23">
-        <v>114.49</v>
-      </c>
-      <c r="G23">
-        <v>1080</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>889147</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>46548.6</v>
-      </c>
-      <c r="D24">
-        <v>60956.5</v>
-      </c>
-      <c r="E24">
-        <v>72039.5</v>
-      </c>
-      <c r="F24">
-        <v>110.83</v>
-      </c>
-      <c r="G24">
-        <v>1080</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>1149598.54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>56473.2</v>
-      </c>
-      <c r="D25">
-        <v>73953</v>
-      </c>
-      <c r="E25">
-        <v>87399</v>
-      </c>
-      <c r="F25">
-        <v>134.46</v>
-      </c>
-      <c r="G25">
-        <v>1242</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
+        <v>6343895.29</v>
       </c>
     </row>
   </sheetData>
